--- a/出品プログラム/2021_07_13_出品情報.xlsx
+++ b/出品プログラム/2021_07_13_出品情報.xlsx
@@ -861,15 +861,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -887,6 +878,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1860,7 +1860,7 @@
   <dimension ref="A2:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1942,32 +1942,32 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -2035,32 +2035,32 @@
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -2128,32 +2128,32 @@
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -2221,32 +2221,32 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -2314,32 +2314,32 @@
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:11" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -2407,32 +2407,32 @@
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:11" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -2500,32 +2500,32 @@
       <c r="K33" s="8"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="19"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -2593,32 +2593,32 @@
       <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="19"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
     </row>
     <row r="40" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="22"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="1:11" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -2686,32 +2686,32 @@
       <c r="K43" s="8"/>
     </row>
     <row r="44" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="19"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
     </row>
     <row r="45" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="22"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="19"/>
     </row>
     <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="1:11" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -2779,32 +2779,32 @@
       <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="19"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="22"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="19"/>
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="52" spans="1:11" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -2872,32 +2872,32 @@
       <c r="K53" s="8"/>
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="19"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
     </row>
     <row r="55" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="22"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="19"/>
     </row>
     <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="57" spans="1:11" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -2965,32 +2965,32 @@
       <c r="K58" s="8"/>
     </row>
     <row r="59" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="19"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
     </row>
     <row r="60" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="22"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="19"/>
     </row>
     <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="1:11" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -3058,30 +3058,30 @@
       <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="19"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
     </row>
     <row r="65" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="14"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="22"/>
     </row>
     <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="67" spans="1:11" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -3147,32 +3147,32 @@
       <c r="K68" s="8"/>
     </row>
     <row r="69" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="19"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
     </row>
     <row r="70" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="22"/>
     </row>
     <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="72" spans="1:11" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -3240,32 +3240,32 @@
       <c r="K73" s="8"/>
     </row>
     <row r="74" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="19"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
     </row>
     <row r="75" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="22"/>
     </row>
     <row r="76" spans="1:11" ht="170.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="77" spans="1:11" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3314,6 +3314,24 @@
     <row r="120" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A44:J44"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="A29:J29"/>
@@ -3326,24 +3344,6 @@
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A69:J69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
